--- a/SpecDocs/UAP App Spec - Code Gallery.xlsx
+++ b/SpecDocs/UAP App Spec - Code Gallery.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -182,9 +182,6 @@
     <t>Upate &amp; Security</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Display, notifications, apps, power</t>
   </si>
   <si>
@@ -348,6 +345,9 @@
   </si>
   <si>
     <t>Search gallery</t>
+  </si>
+  <si>
+    <t>Subtitle</t>
   </si>
 </sst>
 </file>
@@ -715,10 +715,10 @@
     </row>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
         <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -775,7 +775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
         <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,22 +945,22 @@
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
@@ -973,19 +973,19 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.25">
@@ -997,43 +997,43 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(SUBSTITUTE(PROPER(E5), " ", ""), "&amp;", "And")</f>
         <v>NetworkAndInternet</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
@@ -1045,19 +1045,19 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
@@ -1069,19 +1069,19 @@
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
@@ -1093,19 +1093,19 @@
         <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
@@ -1117,19 +1117,19 @@
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
@@ -1141,19 +1141,19 @@
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
@@ -1165,19 +1165,19 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
@@ -1189,16 +1189,16 @@
         <v>Display</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" t="str">
         <f>C12&amp; "." &amp;D12 &amp; "View"</f>
@@ -1214,16 +1214,16 @@
         <v>NotificationsAndActions</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" ref="J13:J24" si="1">C13&amp; "." &amp;D13 &amp; "View"</f>
@@ -1239,16 +1239,16 @@
         <v>AppsAndFeatures</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="1"/>
@@ -1264,16 +1264,16 @@
         <v>Multitasking</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="1"/>
@@ -1289,16 +1289,16 @@
         <v>TabletMode</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="1"/>
@@ -1314,16 +1314,16 @@
         <v>PowerAndSleep</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="1"/>
@@ -1339,16 +1339,16 @@
         <v>Storage</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="1"/>
@@ -1364,16 +1364,16 @@
         <v>OffineMaps</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="1"/>
@@ -1389,16 +1389,16 @@
         <v>DefaultApps</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="1"/>
@@ -1414,16 +1414,16 @@
         <v>About</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="1"/>
@@ -1432,26 +1432,26 @@
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>AdvancedDisplaySettings</v>
+      </c>
+      <c r="E22" t="s">
         <v>97</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>AdvancedDisplaySettings</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>98</v>
       </c>
-      <c r="F22" t="s">
-        <v>99</v>
-      </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="1"/>
@@ -1460,26 +1460,26 @@
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>ChooseDefaultAppsByFileType</v>
       </c>
       <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s">
         <v>72</v>
-      </c>
-      <c r="F23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" t="s">
-        <v>73</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="1"/>
@@ -1488,26 +1488,26 @@
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>ChooseDefaultAppsByProtocal</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="1"/>
@@ -1516,29 +1516,29 @@
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>SetDefaultsByApp</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
